--- a/Clases/Sensibilidad-Mioo_Metodos 10-09-2023.xlsx
+++ b/Clases/Sensibilidad-Mioo_Metodos 10-09-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinna\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\Metodos\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C185886-2836-454B-9390-2D8EFEF1B658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085F9CA8-AA34-4508-8FD7-3C5DB419A095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{4B291B31-B497-4463-B084-2EEDF4185CD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4B291B31-B497-4463-B084-2EEDF4185CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,23 +374,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,7 +709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -723,81 +721,81 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -811,7 +809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
@@ -825,12 +823,12 @@
         <v>17.142857142857142</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
@@ -847,7 +845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -864,7 +862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
@@ -881,12 +879,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
@@ -906,14 +904,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>25</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -926,14 +924,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="3">
         <v>35</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -956,83 +954,83 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1055,7 +1053,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1078,54 +1076,54 @@
         <v>0.66666666666666685</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
@@ -1148,7 +1146,7 @@
         <v>10.999999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1182,55 +1180,55 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1241,50 +1239,50 @@
         <v>17.142857142857142</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -1307,7 +1305,7 @@
         <v>17.142857142857142</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1340,12 +1338,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1374,7 +1372,7 @@
         <v>0.7142857142857163</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
